--- a/external/DDT_QAQC_BLANK.xlsx
+++ b/external/DDT_QAQC_BLANK.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23085" yWindow="1200" windowWidth="23040" windowHeight="9990"/>
+    <workbookView xWindow="23085" yWindow="4800" windowWidth="23040" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Methods Table" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>CharacteristicName</t>
   </si>
@@ -55,18 +55,6 @@
     <t>parameterAbbrevApply</t>
   </si>
   <si>
-    <t>Parameter Group</t>
-  </si>
-  <si>
-    <t>Parameter Name</t>
-  </si>
-  <si>
-    <t>Parameter Abbrev.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter Name </t>
-  </si>
-  <si>
     <t>Sample Fraction</t>
   </si>
   <si>
@@ -76,12 +64,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>Apply Unif.?</t>
-  </si>
-  <si>
-    <t>Units Conv. Mult.</t>
-  </si>
-  <si>
     <t>parameterGroupApply</t>
   </si>
   <si>
@@ -91,12 +73,6 @@
     <t>Activity Media</t>
   </si>
   <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>DATA FIELDS FROM WATER QUALITY PORTAL</t>
   </si>
   <si>
@@ -106,9 +82,6 @@
     <t xml:space="preserve">DATA DISCOVERY TOOL TRANSFORMATIONS / DATA SCREENS </t>
   </si>
   <si>
-    <t>Convenient categories</t>
-  </si>
-  <si>
     <t>Characteristic</t>
   </si>
   <si>
@@ -128,6 +101,36 @@
   </si>
   <si>
     <t>apply</t>
+  </si>
+  <si>
+    <t>Sample Fraction QAQC</t>
+  </si>
+  <si>
+    <t>QC Min</t>
+  </si>
+  <si>
+    <t>QC Max</t>
+  </si>
+  <si>
+    <t>Apply QAQC</t>
+  </si>
+  <si>
+    <t>Units.QAQC</t>
+  </si>
+  <si>
+    <t>Units Conv Mult</t>
+  </si>
+  <si>
+    <t>Characteristic Abbrev.</t>
+  </si>
+  <si>
+    <t>Characteristic Group</t>
+  </si>
+  <si>
+    <t>Characteristic QAQC</t>
+  </si>
+  <si>
+    <t>Convenience categories</t>
   </si>
 </sst>
 </file>
@@ -676,12 +679,9 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="19" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
@@ -690,30 +690,21 @@
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="32" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" xfId="37" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1065,10 +1056,10 @@
   <dimension ref="A1:N332"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F282" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:N332"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1085,1261 +1076,1275 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="H1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="H1" s="18" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-    </row>
-    <row r="2" spans="1:14" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="19" t="s">
+      <c r="M6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="1:14" ht="7.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="7.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="N6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H7" s="14"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H8" s="14"/>
-      <c r="K8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H9" s="14"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H10" s="14"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H11" s="14"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H12" s="14"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H13" s="14"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H14" s="14"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H15" s="14"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="14"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H17" s="14"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H18" s="14"/>
-      <c r="K18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H19" s="14"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H20" s="14"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H21" s="14"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H22" s="14"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="8:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H23" s="14"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="8:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H24" s="14"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="8:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="14"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="8:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H26" s="14"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="8:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="14"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H28" s="14"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H29" s="14"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="8:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H30" s="14"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="H30" s="9"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
     </row>
     <row r="31" spans="8:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="14"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="H31" s="9"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
     </row>
     <row r="32" spans="8:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="14"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="H32" s="9"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
     </row>
     <row r="33" spans="8:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="14"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
+      <c r="H33" s="9"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
     </row>
     <row r="34" spans="8:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="14"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
+      <c r="H34" s="9"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
     </row>
     <row r="35" spans="8:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H35" s="14"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="H35" s="9"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
     </row>
     <row r="36" spans="8:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="14"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
+      <c r="H36" s="9"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
     </row>
     <row r="37" spans="8:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="14"/>
-      <c r="K37" s="8"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="H37" s="9"/>
+      <c r="K37" s="5"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
     </row>
     <row r="38" spans="8:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H38" s="14"/>
-      <c r="K38" s="8"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
+      <c r="H38" s="9"/>
+      <c r="K38" s="5"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
     </row>
     <row r="39" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H39" s="14"/>
-      <c r="K39" s="8"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="H39" s="9"/>
+      <c r="K39" s="5"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
     </row>
     <row r="40" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H40" s="14"/>
-      <c r="K40" s="8"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
+      <c r="H40" s="9"/>
+      <c r="K40" s="5"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
     </row>
     <row r="41" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H41" s="14"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
+      <c r="H41" s="9"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
     </row>
     <row r="42" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H42" s="14"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
+      <c r="H42" s="9"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
     </row>
     <row r="43" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H43" s="14"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
+      <c r="H43" s="9"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
     </row>
     <row r="44" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H44" s="14"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
+      <c r="H44" s="9"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
     </row>
     <row r="45" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H45" s="14"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
+      <c r="H45" s="9"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
     </row>
     <row r="46" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H46" s="14"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
+      <c r="H46" s="9"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
     </row>
     <row r="47" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H47" s="14"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
+      <c r="H47" s="9"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
     </row>
     <row r="48" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H48" s="14"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
+      <c r="H48" s="9"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
     </row>
     <row r="49" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H49" s="14"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
+      <c r="H49" s="9"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
     </row>
     <row r="50" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H50" s="14"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
+      <c r="H50" s="9"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
     </row>
     <row r="51" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H51" s="14"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
+      <c r="H51" s="9"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
     </row>
     <row r="52" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H52" s="14"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
+      <c r="H52" s="9"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
     </row>
     <row r="53" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H53" s="14"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
+      <c r="H53" s="9"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
     </row>
     <row r="54" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H54" s="14"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
+      <c r="H54" s="9"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
     </row>
     <row r="55" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H55" s="14"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
+      <c r="H55" s="9"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
     </row>
     <row r="56" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H56" s="14"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
+      <c r="H56" s="9"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
     </row>
     <row r="57" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H57" s="14"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
+      <c r="H57" s="9"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
     </row>
     <row r="58" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H58" s="14"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H59" s="14"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H60" s="14"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H61" s="14"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H62" s="14"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H63" s="14"/>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H64" s="14"/>
+      <c r="H64" s="9"/>
     </row>
     <row r="65" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H65" s="14"/>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H66" s="14"/>
+      <c r="H66" s="9"/>
     </row>
     <row r="67" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H67" s="14"/>
+      <c r="H67" s="9"/>
     </row>
     <row r="68" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H68" s="14"/>
+      <c r="H68" s="9"/>
     </row>
     <row r="69" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H69" s="14"/>
+      <c r="H69" s="9"/>
     </row>
     <row r="70" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H70" s="14"/>
+      <c r="H70" s="9"/>
     </row>
     <row r="71" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H71" s="14"/>
+      <c r="H71" s="9"/>
     </row>
     <row r="72" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H72" s="14"/>
+      <c r="H72" s="9"/>
     </row>
     <row r="73" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H73" s="14"/>
+      <c r="H73" s="9"/>
     </row>
     <row r="74" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H74" s="14"/>
+      <c r="H74" s="9"/>
     </row>
     <row r="75" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H75" s="14"/>
+      <c r="H75" s="9"/>
     </row>
     <row r="76" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H76" s="14"/>
+      <c r="H76" s="9"/>
     </row>
     <row r="77" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H77" s="14"/>
+      <c r="H77" s="9"/>
     </row>
     <row r="78" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H78" s="14"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
+      <c r="H78" s="9"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
     </row>
     <row r="79" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H79" s="14"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
+      <c r="H79" s="9"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
     </row>
     <row r="80" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H80" s="14"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
+      <c r="H80" s="9"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
     </row>
     <row r="81" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H81" s="14"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
+      <c r="H81" s="9"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
     </row>
     <row r="82" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H82" s="14"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
+      <c r="H82" s="9"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
     </row>
     <row r="83" spans="8:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="H83" s="14"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
+      <c r="H83" s="9"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
     </row>
     <row r="84" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H84" s="14"/>
+      <c r="H84" s="9"/>
     </row>
     <row r="85" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H85" s="14"/>
+      <c r="H85" s="9"/>
     </row>
     <row r="86" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H86" s="14"/>
+      <c r="H86" s="9"/>
     </row>
     <row r="87" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H87" s="14"/>
+      <c r="H87" s="9"/>
     </row>
     <row r="88" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H88" s="14"/>
+      <c r="H88" s="9"/>
     </row>
     <row r="89" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H89" s="14"/>
+      <c r="H89" s="9"/>
     </row>
     <row r="90" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H90" s="14"/>
+      <c r="H90" s="9"/>
     </row>
     <row r="91" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H91" s="14"/>
-      <c r="K91" s="8"/>
+      <c r="H91" s="9"/>
+      <c r="K91" s="5"/>
     </row>
     <row r="92" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H92" s="14"/>
-      <c r="K92" s="8"/>
+      <c r="H92" s="9"/>
+      <c r="K92" s="5"/>
     </row>
     <row r="93" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H93" s="14"/>
+      <c r="H93" s="9"/>
     </row>
     <row r="94" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H94" s="14"/>
+      <c r="H94" s="9"/>
     </row>
     <row r="95" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H95" s="14"/>
+      <c r="H95" s="9"/>
     </row>
     <row r="96" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H96" s="14"/>
+      <c r="H96" s="9"/>
     </row>
     <row r="97" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H97" s="14"/>
-      <c r="L97" s="11"/>
+      <c r="H97" s="9"/>
+      <c r="L97" s="7"/>
     </row>
     <row r="98" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H98" s="14"/>
+      <c r="H98" s="9"/>
     </row>
     <row r="99" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H99" s="14"/>
+      <c r="H99" s="9"/>
     </row>
     <row r="100" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H100" s="14"/>
+      <c r="H100" s="9"/>
     </row>
     <row r="101" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H101" s="14"/>
+      <c r="H101" s="9"/>
     </row>
     <row r="102" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H102" s="14"/>
+      <c r="H102" s="9"/>
     </row>
     <row r="103" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H103" s="14"/>
+      <c r="H103" s="9"/>
     </row>
     <row r="104" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H104" s="14"/>
+      <c r="H104" s="9"/>
     </row>
     <row r="105" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H105" s="14"/>
+      <c r="H105" s="9"/>
     </row>
     <row r="106" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H106" s="14"/>
+      <c r="H106" s="9"/>
     </row>
     <row r="107" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H107" s="14"/>
+      <c r="H107" s="9"/>
     </row>
     <row r="108" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H108" s="14"/>
+      <c r="H108" s="9"/>
     </row>
     <row r="109" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H109" s="14"/>
+      <c r="H109" s="9"/>
     </row>
     <row r="110" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H110" s="14"/>
+      <c r="H110" s="9"/>
     </row>
     <row r="111" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H111" s="14"/>
+      <c r="H111" s="9"/>
     </row>
     <row r="112" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H112" s="14"/>
+      <c r="H112" s="9"/>
     </row>
     <row r="113" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H113" s="14"/>
+      <c r="H113" s="9"/>
     </row>
     <row r="114" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H114" s="14"/>
+      <c r="H114" s="9"/>
     </row>
     <row r="115" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H115" s="14"/>
+      <c r="H115" s="9"/>
     </row>
     <row r="116" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H116" s="14"/>
+      <c r="H116" s="9"/>
     </row>
     <row r="117" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H117" s="14"/>
+      <c r="H117" s="9"/>
     </row>
     <row r="118" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H118" s="14"/>
+      <c r="H118" s="9"/>
     </row>
     <row r="119" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H119" s="14"/>
+      <c r="H119" s="9"/>
     </row>
     <row r="120" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H120" s="14"/>
+      <c r="H120" s="9"/>
     </row>
     <row r="121" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H121" s="14"/>
+      <c r="H121" s="9"/>
     </row>
     <row r="122" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H122" s="14"/>
+      <c r="H122" s="9"/>
     </row>
     <row r="123" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H123" s="14"/>
+      <c r="H123" s="9"/>
     </row>
     <row r="124" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H124" s="14"/>
+      <c r="H124" s="9"/>
     </row>
     <row r="125" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H125" s="14"/>
+      <c r="H125" s="9"/>
     </row>
     <row r="126" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H126" s="14"/>
+      <c r="H126" s="9"/>
     </row>
     <row r="127" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H127" s="14"/>
+      <c r="H127" s="9"/>
     </row>
     <row r="128" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H128" s="14"/>
+      <c r="H128" s="9"/>
     </row>
     <row r="129" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H129" s="14"/>
+      <c r="H129" s="9"/>
     </row>
     <row r="130" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H130" s="14"/>
+      <c r="H130" s="9"/>
     </row>
     <row r="131" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H131" s="14"/>
+      <c r="H131" s="9"/>
     </row>
     <row r="132" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H132" s="14"/>
+      <c r="H132" s="9"/>
     </row>
     <row r="133" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H133" s="14"/>
+      <c r="H133" s="9"/>
     </row>
     <row r="134" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H134" s="14"/>
+      <c r="H134" s="9"/>
     </row>
     <row r="135" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H135" s="14"/>
+      <c r="H135" s="9"/>
     </row>
     <row r="136" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H136" s="14"/>
+      <c r="H136" s="9"/>
     </row>
     <row r="137" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H137" s="14"/>
+      <c r="H137" s="9"/>
     </row>
     <row r="138" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H138" s="14"/>
+      <c r="H138" s="9"/>
     </row>
     <row r="139" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H139" s="14"/>
+      <c r="H139" s="9"/>
     </row>
     <row r="140" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H140" s="14"/>
+      <c r="H140" s="9"/>
     </row>
     <row r="141" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H141" s="14"/>
+      <c r="H141" s="9"/>
     </row>
     <row r="142" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H142" s="14"/>
+      <c r="H142" s="9"/>
     </row>
     <row r="143" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H143" s="14"/>
+      <c r="H143" s="9"/>
     </row>
     <row r="144" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H144" s="14"/>
+      <c r="H144" s="9"/>
     </row>
     <row r="145" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H145" s="14"/>
+      <c r="H145" s="9"/>
     </row>
     <row r="146" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H146" s="14"/>
+      <c r="H146" s="9"/>
     </row>
     <row r="147" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H147" s="14"/>
+      <c r="H147" s="9"/>
     </row>
     <row r="148" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H148" s="14"/>
+      <c r="H148" s="9"/>
     </row>
     <row r="149" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H149" s="14"/>
+      <c r="H149" s="9"/>
     </row>
     <row r="150" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H150" s="14"/>
+      <c r="H150" s="9"/>
     </row>
     <row r="151" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H151" s="14"/>
+      <c r="H151" s="9"/>
     </row>
     <row r="152" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H152" s="14"/>
+      <c r="H152" s="9"/>
     </row>
     <row r="153" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H153" s="14"/>
+      <c r="H153" s="9"/>
     </row>
     <row r="154" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H154" s="14"/>
+      <c r="H154" s="9"/>
     </row>
     <row r="155" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H155" s="14"/>
+      <c r="H155" s="9"/>
     </row>
     <row r="156" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H156" s="14"/>
+      <c r="H156" s="9"/>
     </row>
     <row r="157" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H157" s="14"/>
+      <c r="H157" s="9"/>
     </row>
     <row r="158" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H158" s="14"/>
+      <c r="H158" s="9"/>
     </row>
     <row r="159" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H159" s="14"/>
+      <c r="H159" s="9"/>
     </row>
     <row r="160" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H160" s="14"/>
+      <c r="H160" s="9"/>
     </row>
     <row r="161" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H161" s="14"/>
+      <c r="H161" s="9"/>
     </row>
     <row r="162" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H162" s="14"/>
-      <c r="L162" s="11"/>
-      <c r="N162" s="8"/>
+      <c r="H162" s="9"/>
+      <c r="L162" s="7"/>
+      <c r="N162" s="5"/>
     </row>
     <row r="163" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H163" s="14"/>
-      <c r="L163" s="11"/>
-      <c r="N163" s="8"/>
+      <c r="H163" s="9"/>
+      <c r="L163" s="7"/>
+      <c r="N163" s="5"/>
     </row>
     <row r="164" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H164" s="14"/>
-      <c r="L164" s="11"/>
-      <c r="N164" s="8"/>
+      <c r="H164" s="9"/>
+      <c r="L164" s="7"/>
+      <c r="N164" s="5"/>
     </row>
     <row r="165" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H165" s="14"/>
-      <c r="L165" s="11"/>
-      <c r="N165" s="8"/>
+      <c r="H165" s="9"/>
+      <c r="L165" s="7"/>
+      <c r="N165" s="5"/>
     </row>
     <row r="166" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H166" s="14"/>
-      <c r="L166" s="11"/>
-      <c r="N166" s="8"/>
+      <c r="H166" s="9"/>
+      <c r="L166" s="7"/>
+      <c r="N166" s="5"/>
     </row>
     <row r="167" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H167" s="14"/>
-      <c r="L167" s="11"/>
-      <c r="N167" s="8"/>
+      <c r="H167" s="9"/>
+      <c r="L167" s="7"/>
+      <c r="N167" s="5"/>
     </row>
     <row r="168" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H168" s="14"/>
-      <c r="L168" s="11"/>
-      <c r="N168" s="8"/>
+      <c r="H168" s="9"/>
+      <c r="L168" s="7"/>
+      <c r="N168" s="5"/>
     </row>
     <row r="169" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H169" s="14"/>
-      <c r="L169" s="11"/>
-      <c r="N169" s="8"/>
+      <c r="H169" s="9"/>
+      <c r="L169" s="7"/>
+      <c r="N169" s="5"/>
     </row>
     <row r="170" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H170" s="14"/>
-      <c r="L170" s="11"/>
-      <c r="N170" s="8"/>
+      <c r="H170" s="9"/>
+      <c r="L170" s="7"/>
+      <c r="N170" s="5"/>
     </row>
     <row r="171" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H171" s="14"/>
-      <c r="L171" s="11"/>
-      <c r="N171" s="8"/>
+      <c r="H171" s="9"/>
+      <c r="L171" s="7"/>
+      <c r="N171" s="5"/>
     </row>
     <row r="172" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H172" s="14"/>
-      <c r="L172" s="11"/>
-      <c r="N172" s="8"/>
+      <c r="H172" s="9"/>
+      <c r="L172" s="7"/>
+      <c r="N172" s="5"/>
     </row>
     <row r="173" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H173" s="14"/>
-      <c r="L173" s="11"/>
-      <c r="N173" s="8"/>
+      <c r="H173" s="9"/>
+      <c r="L173" s="7"/>
+      <c r="N173" s="5"/>
     </row>
     <row r="174" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H174" s="14"/>
-      <c r="L174" s="11"/>
-      <c r="N174" s="8"/>
+      <c r="H174" s="9"/>
+      <c r="L174" s="7"/>
+      <c r="N174" s="5"/>
     </row>
     <row r="175" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H175" s="14"/>
-      <c r="L175" s="11"/>
-      <c r="N175" s="8"/>
+      <c r="H175" s="9"/>
+      <c r="L175" s="7"/>
+      <c r="N175" s="5"/>
     </row>
     <row r="176" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H176" s="14"/>
-      <c r="L176" s="11"/>
-      <c r="N176" s="8"/>
+      <c r="H176" s="9"/>
+      <c r="L176" s="7"/>
+      <c r="N176" s="5"/>
     </row>
     <row r="177" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H177" s="14"/>
-      <c r="L177" s="11"/>
-      <c r="N177" s="8"/>
+      <c r="H177" s="9"/>
+      <c r="L177" s="7"/>
+      <c r="N177" s="5"/>
     </row>
     <row r="178" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H178" s="14"/>
-      <c r="L178" s="11"/>
-      <c r="N178" s="8"/>
+      <c r="H178" s="9"/>
+      <c r="L178" s="7"/>
+      <c r="N178" s="5"/>
     </row>
     <row r="179" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H179" s="14"/>
-      <c r="L179" s="11"/>
-      <c r="N179" s="8"/>
+      <c r="H179" s="9"/>
+      <c r="L179" s="7"/>
+      <c r="N179" s="5"/>
     </row>
     <row r="180" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H180" s="14"/>
-      <c r="L180" s="11"/>
-      <c r="N180" s="8"/>
+      <c r="H180" s="9"/>
+      <c r="L180" s="7"/>
+      <c r="N180" s="5"/>
     </row>
     <row r="181" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H181" s="14"/>
-      <c r="L181" s="11"/>
-      <c r="N181" s="8"/>
+      <c r="H181" s="9"/>
+      <c r="L181" s="7"/>
+      <c r="N181" s="5"/>
     </row>
     <row r="182" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H182" s="14"/>
-      <c r="L182" s="11"/>
-      <c r="N182" s="8"/>
+      <c r="H182" s="9"/>
+      <c r="L182" s="7"/>
+      <c r="N182" s="5"/>
     </row>
     <row r="183" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H183" s="14"/>
-      <c r="L183" s="11"/>
-      <c r="N183" s="8"/>
+      <c r="H183" s="9"/>
+      <c r="L183" s="7"/>
+      <c r="N183" s="5"/>
     </row>
     <row r="184" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H184" s="14"/>
-      <c r="L184" s="11"/>
-      <c r="N184" s="8"/>
+      <c r="H184" s="9"/>
+      <c r="L184" s="7"/>
+      <c r="N184" s="5"/>
     </row>
     <row r="185" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H185" s="14"/>
-      <c r="L185" s="11"/>
-      <c r="N185" s="8"/>
+      <c r="H185" s="9"/>
+      <c r="L185" s="7"/>
+      <c r="N185" s="5"/>
     </row>
     <row r="186" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H186" s="14"/>
-      <c r="L186" s="11"/>
-      <c r="N186" s="8"/>
+      <c r="H186" s="9"/>
+      <c r="L186" s="7"/>
+      <c r="N186" s="5"/>
     </row>
     <row r="187" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H187" s="14"/>
-      <c r="L187" s="11"/>
-      <c r="N187" s="8"/>
+      <c r="H187" s="9"/>
+      <c r="L187" s="7"/>
+      <c r="N187" s="5"/>
     </row>
     <row r="188" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H188" s="14"/>
-      <c r="L188" s="11"/>
-      <c r="N188" s="8"/>
+      <c r="H188" s="9"/>
+      <c r="L188" s="7"/>
+      <c r="N188" s="5"/>
     </row>
     <row r="189" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H189" s="14"/>
-      <c r="L189" s="11"/>
-      <c r="N189" s="8"/>
+      <c r="H189" s="9"/>
+      <c r="L189" s="7"/>
+      <c r="N189" s="5"/>
     </row>
     <row r="190" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H190" s="14"/>
-      <c r="L190" s="11"/>
-      <c r="N190" s="8"/>
+      <c r="H190" s="9"/>
+      <c r="L190" s="7"/>
+      <c r="N190" s="5"/>
     </row>
     <row r="191" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H191" s="14"/>
-      <c r="L191" s="11"/>
+      <c r="H191" s="9"/>
+      <c r="L191" s="7"/>
     </row>
     <row r="192" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H192" s="14"/>
-      <c r="L192" s="11"/>
+      <c r="H192" s="9"/>
+      <c r="L192" s="7"/>
     </row>
     <row r="193" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H193" s="14"/>
-      <c r="L193" s="11"/>
+      <c r="H193" s="9"/>
+      <c r="L193" s="7"/>
     </row>
     <row r="194" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H194" s="14"/>
-      <c r="L194" s="11"/>
+      <c r="H194" s="9"/>
+      <c r="L194" s="7"/>
     </row>
     <row r="195" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H195" s="14"/>
-      <c r="L195" s="11"/>
+      <c r="H195" s="9"/>
+      <c r="L195" s="7"/>
     </row>
     <row r="196" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H196" s="14"/>
-      <c r="L196" s="11"/>
+      <c r="H196" s="9"/>
+      <c r="L196" s="7"/>
     </row>
     <row r="197" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H197" s="14"/>
-      <c r="L197" s="11"/>
+      <c r="H197" s="9"/>
+      <c r="L197" s="7"/>
     </row>
     <row r="198" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H198" s="14"/>
-      <c r="L198" s="11"/>
+      <c r="H198" s="9"/>
+      <c r="L198" s="7"/>
     </row>
     <row r="199" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H199" s="14"/>
-      <c r="L199" s="11"/>
+      <c r="H199" s="9"/>
+      <c r="L199" s="7"/>
     </row>
     <row r="200" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H200" s="14"/>
-      <c r="L200" s="11"/>
+      <c r="H200" s="9"/>
+      <c r="L200" s="7"/>
     </row>
     <row r="201" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H201" s="14"/>
-      <c r="L201" s="11"/>
+      <c r="H201" s="9"/>
+      <c r="L201" s="7"/>
     </row>
     <row r="202" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H202" s="14"/>
-      <c r="L202" s="11"/>
+      <c r="H202" s="9"/>
+      <c r="L202" s="7"/>
     </row>
     <row r="203" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H203" s="14"/>
-      <c r="L203" s="11"/>
+      <c r="H203" s="9"/>
+      <c r="L203" s="7"/>
     </row>
     <row r="204" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H204" s="14"/>
-      <c r="L204" s="11"/>
+      <c r="H204" s="9"/>
+      <c r="L204" s="7"/>
     </row>
     <row r="205" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H205" s="14"/>
+      <c r="H205" s="9"/>
     </row>
     <row r="206" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H206" s="14"/>
+      <c r="H206" s="9"/>
     </row>
     <row r="207" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H207" s="14"/>
+      <c r="H207" s="9"/>
     </row>
     <row r="208" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H208" s="14"/>
+      <c r="H208" s="9"/>
     </row>
     <row r="209" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H209" s="14"/>
+      <c r="H209" s="9"/>
     </row>
     <row r="210" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H210" s="14"/>
+      <c r="H210" s="9"/>
     </row>
     <row r="211" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H211" s="14"/>
+      <c r="H211" s="9"/>
     </row>
     <row r="212" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H212" s="14"/>
+      <c r="H212" s="9"/>
     </row>
     <row r="213" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H213" s="14"/>
+      <c r="H213" s="9"/>
     </row>
     <row r="214" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H214" s="14"/>
+      <c r="H214" s="9"/>
     </row>
     <row r="215" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H215" s="14"/>
+      <c r="H215" s="9"/>
     </row>
     <row r="216" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H216" s="14"/>
+      <c r="H216" s="9"/>
     </row>
     <row r="217" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H217" s="14"/>
+      <c r="H217" s="9"/>
     </row>
     <row r="218" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H218" s="14"/>
+      <c r="H218" s="9"/>
     </row>
     <row r="219" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H219" s="14"/>
+      <c r="H219" s="9"/>
     </row>
     <row r="220" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H220" s="14"/>
+      <c r="H220" s="9"/>
     </row>
     <row r="221" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H221" s="14"/>
+      <c r="H221" s="9"/>
     </row>
     <row r="222" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H222" s="14"/>
+      <c r="H222" s="9"/>
     </row>
     <row r="223" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H223" s="14"/>
+      <c r="H223" s="9"/>
     </row>
     <row r="224" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H224" s="14"/>
+      <c r="H224" s="9"/>
     </row>
     <row r="225" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H225" s="14"/>
+      <c r="H225" s="9"/>
     </row>
     <row r="226" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H226" s="14"/>
+      <c r="H226" s="9"/>
     </row>
     <row r="227" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H227" s="14"/>
+      <c r="H227" s="9"/>
     </row>
     <row r="228" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H228" s="14"/>
+      <c r="H228" s="9"/>
     </row>
     <row r="229" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H229" s="14"/>
+      <c r="H229" s="9"/>
     </row>
     <row r="230" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H230" s="14"/>
+      <c r="H230" s="9"/>
     </row>
     <row r="231" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H231" s="14"/>
+      <c r="H231" s="9"/>
     </row>
     <row r="232" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H232" s="14"/>
+      <c r="H232" s="9"/>
     </row>
     <row r="233" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H233" s="14"/>
+      <c r="H233" s="9"/>
     </row>
     <row r="234" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H234" s="14"/>
+      <c r="H234" s="9"/>
     </row>
     <row r="235" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H235" s="14"/>
+      <c r="H235" s="9"/>
     </row>
     <row r="236" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H236" s="14"/>
+      <c r="H236" s="9"/>
     </row>
     <row r="237" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H237" s="14"/>
+      <c r="H237" s="9"/>
     </row>
     <row r="238" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H238" s="14"/>
+      <c r="H238" s="9"/>
     </row>
     <row r="239" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H239" s="14"/>
+      <c r="H239" s="9"/>
     </row>
     <row r="240" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H240" s="14"/>
+      <c r="H240" s="9"/>
     </row>
     <row r="241" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H241" s="14"/>
+      <c r="H241" s="9"/>
     </row>
     <row r="242" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H242" s="14"/>
+      <c r="H242" s="9"/>
     </row>
     <row r="243" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H243" s="14"/>
+      <c r="H243" s="9"/>
     </row>
     <row r="244" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H244" s="14"/>
+      <c r="H244" s="9"/>
     </row>
     <row r="245" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H245" s="14"/>
+      <c r="H245" s="9"/>
     </row>
     <row r="246" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H246" s="14"/>
+      <c r="H246" s="9"/>
     </row>
     <row r="247" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H247" s="14"/>
+      <c r="H247" s="9"/>
     </row>
     <row r="248" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H248" s="14"/>
+      <c r="H248" s="9"/>
     </row>
     <row r="249" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H249" s="14"/>
+      <c r="H249" s="9"/>
     </row>
     <row r="250" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H250" s="14"/>
+      <c r="H250" s="9"/>
     </row>
     <row r="251" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H251" s="14"/>
+      <c r="H251" s="9"/>
     </row>
     <row r="252" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H252" s="14"/>
+      <c r="H252" s="9"/>
     </row>
     <row r="253" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H253" s="14"/>
+      <c r="H253" s="9"/>
     </row>
     <row r="254" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H254" s="14"/>
+      <c r="H254" s="9"/>
     </row>
     <row r="255" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H255" s="14"/>
+      <c r="H255" s="9"/>
     </row>
     <row r="256" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H256" s="14"/>
+      <c r="H256" s="9"/>
     </row>
     <row r="257" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H257" s="14"/>
+      <c r="H257" s="9"/>
     </row>
     <row r="258" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H258" s="14"/>
+      <c r="H258" s="9"/>
     </row>
     <row r="259" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H259" s="14"/>
+      <c r="H259" s="9"/>
     </row>
     <row r="260" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H260" s="14"/>
+      <c r="H260" s="9"/>
     </row>
     <row r="261" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H261" s="14"/>
+      <c r="H261" s="9"/>
     </row>
     <row r="262" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H262" s="14"/>
+      <c r="H262" s="9"/>
     </row>
     <row r="263" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H263" s="14"/>
+      <c r="H263" s="9"/>
     </row>
     <row r="264" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H264" s="14"/>
+      <c r="H264" s="9"/>
     </row>
     <row r="265" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H265" s="14"/>
+      <c r="H265" s="9"/>
     </row>
     <row r="266" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H266" s="14"/>
+      <c r="H266" s="9"/>
     </row>
     <row r="267" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H267" s="14"/>
+      <c r="H267" s="9"/>
     </row>
     <row r="268" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H268" s="14"/>
+      <c r="H268" s="9"/>
     </row>
     <row r="269" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H269" s="14"/>
+      <c r="H269" s="9"/>
     </row>
     <row r="270" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H270" s="14"/>
+      <c r="H270" s="9"/>
     </row>
     <row r="271" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H271" s="14"/>
+      <c r="H271" s="9"/>
     </row>
     <row r="272" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H272" s="14"/>
+      <c r="H272" s="9"/>
     </row>
     <row r="273" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H273" s="14"/>
+      <c r="H273" s="9"/>
     </row>
     <row r="274" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H274" s="14"/>
+      <c r="H274" s="9"/>
     </row>
     <row r="275" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H275" s="14"/>
+      <c r="H275" s="9"/>
     </row>
     <row r="276" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H276" s="14"/>
+      <c r="H276" s="9"/>
     </row>
     <row r="277" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H277" s="14"/>
+      <c r="H277" s="9"/>
     </row>
     <row r="278" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H278" s="14"/>
+      <c r="H278" s="9"/>
     </row>
     <row r="279" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H279" s="14"/>
+      <c r="H279" s="9"/>
     </row>
     <row r="280" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H280" s="14"/>
+      <c r="H280" s="9"/>
     </row>
     <row r="281" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H281" s="14"/>
+      <c r="H281" s="9"/>
     </row>
     <row r="282" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H282" s="14"/>
+      <c r="H282" s="9"/>
     </row>
     <row r="283" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H283" s="14"/>
+      <c r="H283" s="9"/>
     </row>
     <row r="284" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H284" s="14"/>
+      <c r="H284" s="9"/>
     </row>
     <row r="285" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H285" s="14"/>
+      <c r="H285" s="9"/>
     </row>
     <row r="286" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H286" s="14"/>
+      <c r="H286" s="9"/>
     </row>
     <row r="287" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H287" s="14"/>
+      <c r="H287" s="9"/>
     </row>
     <row r="288" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H288" s="14"/>
+      <c r="H288" s="9"/>
     </row>
     <row r="289" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H289" s="14"/>
+      <c r="H289" s="9"/>
     </row>
     <row r="290" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H290" s="14"/>
+      <c r="H290" s="9"/>
     </row>
     <row r="291" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H291" s="14"/>
+      <c r="H291" s="9"/>
     </row>
     <row r="292" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H292" s="14"/>
+      <c r="H292" s="9"/>
     </row>
     <row r="293" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H293" s="14"/>
+      <c r="H293" s="9"/>
     </row>
     <row r="294" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H294" s="14"/>
+      <c r="H294" s="9"/>
     </row>
     <row r="295" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H295" s="14"/>
+      <c r="H295" s="9"/>
     </row>
     <row r="296" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H296" s="14"/>
+      <c r="H296" s="9"/>
     </row>
     <row r="297" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H297" s="14"/>
+      <c r="H297" s="9"/>
     </row>
     <row r="298" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H298" s="14"/>
+      <c r="H298" s="9"/>
     </row>
     <row r="299" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H299" s="14"/>
+      <c r="H299" s="9"/>
     </row>
     <row r="300" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H300" s="14"/>
+      <c r="H300" s="9"/>
     </row>
     <row r="301" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H301" s="14"/>
+      <c r="H301" s="9"/>
     </row>
     <row r="302" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H302" s="14"/>
+      <c r="H302" s="9"/>
     </row>
     <row r="303" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H303" s="14"/>
+      <c r="H303" s="9"/>
     </row>
     <row r="304" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H304" s="14"/>
+      <c r="H304" s="9"/>
     </row>
     <row r="305" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H305" s="14"/>
+      <c r="H305" s="9"/>
     </row>
     <row r="306" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H306" s="14"/>
+      <c r="H306" s="9"/>
     </row>
     <row r="307" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H307" s="14"/>
+      <c r="H307" s="9"/>
     </row>
     <row r="308" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H308" s="14"/>
+      <c r="H308" s="9"/>
     </row>
     <row r="309" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H309" s="14"/>
+      <c r="H309" s="9"/>
     </row>
     <row r="310" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H310" s="14"/>
+      <c r="H310" s="9"/>
     </row>
     <row r="311" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H311" s="14"/>
+      <c r="H311" s="9"/>
     </row>
     <row r="312" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H312" s="14"/>
+      <c r="H312" s="9"/>
     </row>
     <row r="313" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H313" s="14"/>
+      <c r="H313" s="9"/>
     </row>
     <row r="314" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H314" s="14"/>
+      <c r="H314" s="9"/>
     </row>
     <row r="315" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H315" s="14"/>
+      <c r="H315" s="9"/>
     </row>
     <row r="316" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H316" s="14"/>
+      <c r="H316" s="9"/>
     </row>
     <row r="317" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H317" s="14"/>
+      <c r="H317" s="9"/>
     </row>
     <row r="318" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H318" s="14"/>
+      <c r="H318" s="9"/>
     </row>
     <row r="319" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H319" s="14"/>
+      <c r="H319" s="9"/>
     </row>
     <row r="320" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H320" s="14"/>
+      <c r="H320" s="9"/>
     </row>
     <row r="321" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H321" s="14"/>
+      <c r="H321" s="9"/>
     </row>
     <row r="322" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H322" s="14"/>
+      <c r="H322" s="9"/>
     </row>
     <row r="323" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H323" s="14"/>
+      <c r="H323" s="9"/>
     </row>
     <row r="324" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H324" s="14"/>
+      <c r="H324" s="9"/>
     </row>
     <row r="325" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H325" s="14"/>
+      <c r="H325" s="9"/>
     </row>
     <row r="326" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H326" s="14"/>
+      <c r="H326" s="9"/>
     </row>
     <row r="327" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H327" s="14"/>
+      <c r="H327" s="9"/>
     </row>
     <row r="328" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H328" s="14"/>
+      <c r="H328" s="9"/>
     </row>
     <row r="329" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H329" s="14"/>
+      <c r="H329" s="9"/>
     </row>
     <row r="330" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H330" s="14"/>
+      <c r="H330" s="9"/>
     </row>
     <row r="331" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H331" s="14"/>
+      <c r="H331" s="9"/>
     </row>
     <row r="332" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H332" s="14"/>
+      <c r="H332" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:N332"/>
